--- a/data/data_report/brand_catalog.xlsx
+++ b/data/data_report/brand_catalog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>医药保健</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -26,14 +26,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>大家电</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>小家电</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>美妆个护</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -164,6 +156,10 @@
   </si>
   <si>
     <t>海澜之家</t>
+  </si>
+  <si>
+    <t>家用电器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1134,7 +1130,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1150,166 +1146,163 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="8" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="8" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E12" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
